--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
@@ -251,17 +251,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -567,7 +563,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="10.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -582,7 +578,7 @@
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>

--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
@@ -24,183 +24,16 @@
     <x:t>Value2</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">a 
+    <x:t xml:space="preserve">● a 
+● a  
+●  a 
+●   a  
+● a	
+● 	a
+● 	a	
+● 
+a
 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">a  
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> a 
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">  a  
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">a	
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">	a
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">	a	
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
-   a
-   </x:t>
-    </x:r>
   </x:si>
 </x:sst>
 </file>

--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
@@ -399,7 +399,7 @@
     <x:col min="1" max="2" width="10.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -407,7 +407,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:2" ht="128.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.WithWhitespaceNoTrim.verified.xlsx
@@ -396,7 +396,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="10.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
